--- a/resources/experiment 1/metrics/R2/average time/Amputación extremidades inferiores.xlsx
+++ b/resources/experiment 1/metrics/R2/average time/Amputación extremidades inferiores.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9948048582824794</v>
+        <v>0.9952871594118279</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9948048582824794</v>
+        <v>0.9943045253043201</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9948048582824794</v>
+        <v>0.9928601928073669</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.995789650922759</v>
+        <v>0.9955110241729385</v>
       </c>
       <c r="C4" t="n">
-        <v>0.995789650922759</v>
+        <v>0.995595702304051</v>
       </c>
       <c r="D4" t="n">
-        <v>0.995789650922759</v>
+        <v>0.9955134943739515</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9607884845495596</v>
+        <v>0.9952062314593473</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9607884845495596</v>
+        <v>0.9948633659923946</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9607884845495596</v>
+        <v>0.9952198367070467</v>
       </c>
     </row>
   </sheetData>
